--- a/All_Testing_Results.xlsx
+++ b/All_Testing_Results.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -387,7 +387,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Logistic regression</t>
+          <t>Logistic Regression</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -409,7 +409,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Logistic regression</t>
+          <t>Logistic Regression</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -431,7 +431,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Logistic regression</t>
+          <t>Logistic Regression</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -453,7 +453,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Logistic regression</t>
+          <t>Logistic Regression</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -475,7 +475,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Logistic regression</t>
+          <t>Logistic Regression</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -497,7 +497,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Logistic regression</t>
+          <t>Logistic Regression</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -519,7 +519,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Logistic regression</t>
+          <t>Logistic Regression</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Logistic regression</t>
+          <t>Logistic Regression</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Logistic regression</t>
+          <t>Logistic Regression</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -585,7 +585,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Logistic regression</t>
+          <t>Logistic Regression</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -607,7 +607,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Convolutional neural network</t>
+          <t>Convolutional Neural Network</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Convolutional neural network</t>
+          <t>Convolutional Neural Network</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Convolutional neural network</t>
+          <t>Convolutional Neural Network</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -673,7 +673,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Convolutional neural network</t>
+          <t>Convolutional Neural Network</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -695,7 +695,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Convolutional neural network</t>
+          <t>Convolutional Neural Network</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -717,7 +717,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Convolutional neural network</t>
+          <t>Convolutional Neural Network</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Convolutional neural network</t>
+          <t>Convolutional Neural Network</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Convolutional neural network</t>
+          <t>Convolutional Neural Network</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -783,7 +783,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Convolutional neural network</t>
+          <t>Convolutional Neural Network</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -805,7 +805,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Convolutional neural network</t>
+          <t>Convolutional Neural Network</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Logistic regression</t>
+          <t>Logistic Regression</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -849,17 +849,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Logistic regression</t>
+          <t>Logistic Regression</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>AUROC</t>
+          <t>AUPRC</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.16</t>
         </is>
       </c>
     </row>
@@ -871,17 +871,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Logistic regression</t>
+          <t>Logistic Regression</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>AUPRC</t>
+          <t>Accuracy</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.72</t>
         </is>
       </c>
     </row>
@@ -893,17 +893,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Logistic regression</t>
+          <t>Logistic Regression</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>AUPRC</t>
+          <t>Precision</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.17</t>
         </is>
       </c>
     </row>
@@ -915,17 +915,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Logistic regression</t>
+          <t>Logistic Regression</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Accuracy</t>
+          <t>Recall</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.58</t>
         </is>
       </c>
     </row>
@@ -937,17 +937,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Logistic regression</t>
+          <t>Logistic Regression</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Accuracy</t>
+          <t>F1 score</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.27</t>
         </is>
       </c>
     </row>
@@ -959,17 +959,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Logistic regression</t>
+          <t>Logistic Regression</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Precision</t>
+          <t>True positives</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>60</t>
         </is>
       </c>
     </row>
@@ -981,17 +981,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Logistic regression</t>
+          <t>Logistic Regression</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Precision</t>
+          <t>True negatives</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>802</t>
         </is>
       </c>
     </row>
@@ -1003,17 +1003,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Logistic regression</t>
+          <t>Logistic Regression</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Recall</t>
+          <t>False positives</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>285</t>
         </is>
       </c>
     </row>
@@ -1025,17 +1025,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Logistic regression</t>
+          <t>Logistic Regression</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Recall</t>
+          <t>False negatives</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>44</t>
         </is>
       </c>
     </row>
@@ -1047,17 +1047,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Logistic regression</t>
+          <t>Convolutional Neural Network</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>F1 score</t>
+          <t>AUROC</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
@@ -1069,17 +1069,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Logistic regression</t>
+          <t>Convolutional Neural Network</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>F1 score</t>
+          <t>AUPRC</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.39</t>
         </is>
       </c>
     </row>
@@ -1091,17 +1091,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Logistic regression</t>
+          <t>Convolutional Neural Network</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>True positives</t>
+          <t>Accuracy</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>0.9</t>
         </is>
       </c>
     </row>
@@ -1113,17 +1113,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Logistic regression</t>
+          <t>Convolutional Neural Network</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>True positives</t>
+          <t>Precision</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>0.43</t>
         </is>
       </c>
     </row>
@@ -1135,17 +1135,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Logistic regression</t>
+          <t>Convolutional Neural Network</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>True negatives</t>
+          <t>Recall</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>802</t>
+          <t>0.37</t>
         </is>
       </c>
     </row>
@@ -1157,17 +1157,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Logistic regression</t>
+          <t>Convolutional Neural Network</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>True negatives</t>
+          <t>F1 score</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>802</t>
+          <t>0.39</t>
         </is>
       </c>
     </row>
@@ -1179,17 +1179,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Logistic regression</t>
+          <t>Convolutional Neural Network</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>False positives</t>
+          <t>True positives</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>38</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Logistic regression</t>
+          <t>Convolutional Neural Network</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>False positives</t>
+          <t>True negatives</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>1036</t>
         </is>
       </c>
     </row>
@@ -1223,17 +1223,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Logistic regression</t>
+          <t>Convolutional Neural Network</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>False negatives</t>
+          <t>False positives</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>51</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Logistic regression</t>
+          <t>Convolutional Neural Network</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1254,446 +1254,6 @@
         </is>
       </c>
       <c r="D41" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>PubMed Central</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Convolutional neural network</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>AUROC</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>PubMed Central</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Convolutional neural network</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>AUROC</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>PubMed Central</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Convolutional neural network</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>AUPRC</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>PubMed Central</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Convolutional neural network</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>AUPRC</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>PubMed Central</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Convolutional neural network</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Accuracy</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>0.9</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>PubMed Central</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Convolutional neural network</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Accuracy</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>0.9</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>PubMed Central</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Convolutional neural network</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Precision</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>PubMed Central</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Convolutional neural network</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Precision</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>PubMed Central</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Convolutional neural network</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Recall</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>PubMed Central</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Convolutional neural network</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Recall</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>PubMed Central</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Convolutional neural network</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>F1 score</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>PubMed Central</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Convolutional neural network</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>F1 score</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>PubMed Central</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Convolutional neural network</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>True positives</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>PubMed Central</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Convolutional neural network</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>True positives</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>PubMed Central</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Convolutional neural network</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>True negatives</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>1036</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>PubMed Central</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Convolutional neural network</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>True negatives</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>1036</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>PubMed Central</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Convolutional neural network</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>False positives</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>PubMed Central</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Convolutional neural network</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>False positives</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>PubMed Central</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Convolutional neural network</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>False negatives</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>PubMed Central</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Convolutional neural network</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>False negatives</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
         <is>
           <t>66</t>
         </is>
